--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10808" tabRatio="477" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10808" tabRatio="477" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="213">
   <si>
     <t>Initials</t>
   </si>
@@ -373,39 +373,18 @@
     <t>cl</t>
   </si>
   <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
     <t>Store marriage date</t>
   </si>
   <si>
-    <t>T04.02</t>
-  </si>
-  <si>
     <t>Store two birth dates</t>
   </si>
   <si>
-    <t>T04.03</t>
-  </si>
-  <si>
     <t>Compare birth and marriage date, and the year of age 14</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Keep doing:</t>
   </si>
   <si>
@@ -653,6 +632,48 @@
   </si>
   <si>
     <t>URL: https://github.com/cliang6/CS_555_GEDCOM_Project</t>
+  </si>
+  <si>
+    <t>T09.01</t>
+  </si>
+  <si>
+    <t>T09.02</t>
+  </si>
+  <si>
+    <t>T09.03</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>T10.03</t>
+  </si>
+  <si>
+    <t>T17.01</t>
+  </si>
+  <si>
+    <t>T17.02</t>
+  </si>
+  <si>
+    <t>T17.03</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>T18.02</t>
+  </si>
+  <si>
+    <t>T18.03</t>
+  </si>
+  <si>
+    <t>Store birth date of children</t>
+  </si>
+  <si>
+    <t>Store death date of parent</t>
   </si>
 </sst>
 </file>
@@ -663,7 +684,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -682,6 +703,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -712,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -737,6 +776,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,10 +2044,10 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2027,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
@@ -2706,14 +2748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="7.64453125" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.64453125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -2752,7 +2794,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2771,8 +2813,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14"/>
+    </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2783,7 +2828,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2793,8 +2838,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.75">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2804,8 +2849,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14"/>
+    </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2824,8 +2872,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14"/>
+    </row>
     <row r="10" spans="1:9" ht="24.75">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2836,7 +2887,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2847,7 +2898,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.75">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2857,12 +2908,15 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14"/>
+    </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>32</v>
+      <c r="A14" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -2877,31 +2931,34 @@
         <v>60</v>
       </c>
     </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15"/>
+    </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>112</v>
+      <c r="A16" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>113</v>
+      <c r="A17" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.75">
-      <c r="A18" t="s">
-        <v>114</v>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>104</v>
@@ -2910,9 +2967,12 @@
         <v>111</v>
       </c>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15"/>
+    </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>34</v>
+      <c r="A20" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -2930,51 +2990,54 @@
         <v>60</v>
       </c>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15"/>
+    </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A22" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>117</v>
+      <c r="A23" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24.75">
-      <c r="A24" t="s">
-        <v>119</v>
+      <c r="A24" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>32</v>
+      <c r="A26" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>150</v>
@@ -2983,51 +3046,48 @@
         <v>60</v>
       </c>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16"/>
+    </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>100</v>
+      <c r="A28" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>102</v>
+      <c r="A29" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="24.75">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>32</v>
+      <c r="A32" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>150</v>
@@ -3036,37 +3096,31 @@
         <v>60</v>
       </c>
     </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="16"/>
+    </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>100</v>
+      <c r="A34" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>102</v>
+      <c r="A35" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24.75">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="2:2">
@@ -3077,18 +3131,18 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3232,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
@@ -3250,7 +3304,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
@@ -3261,7 +3315,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -3272,7 +3326,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -3283,7 +3337,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
@@ -3294,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -3305,7 +3359,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -3316,7 +3370,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
@@ -3327,7 +3381,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -3338,7 +3392,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
@@ -3349,7 +3403,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
@@ -3360,7 +3414,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
@@ -3371,7 +3425,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45">
@@ -3382,7 +3436,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60">
@@ -3393,7 +3447,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
@@ -3404,7 +3458,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
@@ -3415,7 +3469,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
@@ -3426,7 +3480,7 @@
         <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
@@ -3437,7 +3491,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
@@ -3448,7 +3502,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
@@ -3459,7 +3513,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
@@ -3470,7 +3524,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
@@ -3481,7 +3535,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
@@ -3492,7 +3546,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
@@ -3503,7 +3557,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45">
@@ -3514,205 +3568,205 @@
         <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,41 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheng\Desktop\CS-555\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10808" tabRatio="477" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="477" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
-    <sheet name="Stories" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
+    <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
   <si>
     <t>Initials</t>
   </si>
@@ -100,6 +88,12 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
+    <t>cliang6/CS_555_GEDCOM_Project</t>
+  </si>
+  <si>
+    <t>URL: https://github.com/cliang6/CS_555_GEDCOM_Project</t>
+  </si>
+  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -124,133 +118,604 @@
     <t>YZ</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List Multiplebirth</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US05</t>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birth, death, wed, div date</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store current date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Compare those dates and current date</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>T09.01</t>
+  </si>
+  <si>
+    <t>Store birth date of children</t>
+  </si>
+  <si>
+    <t>T09.02</t>
+  </si>
+  <si>
+    <t>Store death date of parent</t>
+  </si>
+  <si>
+    <t>T09.03</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>Store two birth dates</t>
+  </si>
+  <si>
+    <t>T10.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date, and the year of age 14</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>1.Keep your programming passion alive</t>
+  </si>
+  <si>
+    <t>2.Maintain regular meetings</t>
+  </si>
+  <si>
+    <t>3.Keep delivering as soon as possible</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>1.Avoid changing user stories midway through</t>
+  </si>
+  <si>
+    <t>2.Avoid having only one person integrate</t>
+  </si>
+  <si>
+    <t>3.Avoid using the system to automatically generate tests</t>
+  </si>
+  <si>
+    <t>4.Avoid major functions that cannot call other user stories</t>
+  </si>
+  <si>
+    <t>5.Avoid common functions with user stories</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare marriage dates and birth dates</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage dates and death dates</t>
+  </si>
+  <si>
+    <t>T11.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search duplicated husband and wife </t>
+  </si>
+  <si>
+    <t>T11.02</t>
+  </si>
+  <si>
+    <t>Check marriage and divorce day</t>
+  </si>
+  <si>
+    <t>T11.03</t>
+  </si>
+  <si>
+    <t>Judge marry same people in same period of time or not.</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>Store father's and mother's birthday</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>Store child's birthday</t>
+  </si>
+  <si>
+    <t>T12.03</t>
+  </si>
+  <si>
+    <t>Compare their birthday</t>
   </si>
   <si>
     <t>No marriages to descendants</t>
   </si>
   <si>
-    <t>US06</t>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>T29.03</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>T30.03</t>
+  </si>
+  <si>
+    <t>US06.01</t>
+  </si>
+  <si>
+    <t>locate divorce</t>
+  </si>
+  <si>
+    <t>US06.02</t>
+  </si>
+  <si>
+    <t>locate death</t>
+  </si>
+  <si>
+    <t>US06.03</t>
+  </si>
+  <si>
+    <t>compare divorce and death</t>
+  </si>
+  <si>
+    <t>US38.01</t>
+  </si>
+  <si>
+    <t>US38.02</t>
+  </si>
+  <si>
+    <t>US38.03</t>
+  </si>
+  <si>
+    <t>T13.01</t>
+  </si>
+  <si>
+    <t>locate family</t>
+  </si>
+  <si>
+    <t>T13.02</t>
+  </si>
+  <si>
+    <t>store times of births</t>
+  </si>
+  <si>
+    <t>T13.03</t>
+  </si>
+  <si>
+    <t>compare times</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>count number of births</t>
+  </si>
+  <si>
+    <t>T14.03</t>
+  </si>
+  <si>
+    <t>compare number with 5</t>
+  </si>
+  <si>
+    <t>T31.01</t>
+  </si>
+  <si>
+    <t>T31.02</t>
+  </si>
+  <si>
+    <t>T31.03</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t>T32.03</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
   </si>
   <si>
     <t>Siblings should not marry</t>
   </si>
   <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US11</t>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
   </si>
   <si>
     <t>First cousins should not marry</t>
   </si>
   <si>
-    <t>US12</t>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
   </si>
   <si>
     <t>Aunts and uncles</t>
   </si>
   <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US17</t>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>US21</t>
   </si>
   <si>
     <t>Correct gender for role</t>
   </si>
   <si>
-    <t>US18</t>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>US22</t>
   </si>
   <si>
     <t>Unique IDs</t>
   </si>
   <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Male last names</t>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
   </si>
   <si>
     <t>US23</t>
@@ -259,210 +724,15 @@
     <t>Unique name and birth date</t>
   </si>
   <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
     <t>US24</t>
   </si>
   <si>
     <t>Unique families by spouses</t>
   </si>
   <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>9/24/2018</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>cl</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>Store two birth dates</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date, and the year of age 14</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
     <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
   </si>
   <si>
@@ -502,48 +772,18 @@
     <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
   </si>
   <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
     <t>List all deceased individuals in a GEDCOM file</t>
   </si>
   <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
     <t>List all living married people in a GEDCOM file</t>
   </si>
   <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
     <t>List all living people over 30 who have never been married in a GEDCOM file</t>
   </si>
   <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
     <t>List all multiple births in a GEDCOM file</t>
   </si>
   <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
     <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
   </si>
   <si>
@@ -556,12 +796,6 @@
     <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
   </si>
   <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
     <t>List all people in a GEDCOM file who were born in the last 30 days</t>
   </si>
   <si>
@@ -583,21 +817,9 @@
     <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
   </si>
   <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
     <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
   </si>
   <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
     <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
   </si>
   <si>
@@ -626,65 +848,22 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>cliang6/CS_555_GEDCOM_Project</t>
-  </si>
-  <si>
-    <t>URL: https://github.com/cliang6/CS_555_GEDCOM_Project</t>
-  </si>
-  <si>
-    <t>T09.01</t>
-  </si>
-  <si>
-    <t>T09.02</t>
-  </si>
-  <si>
-    <t>T09.03</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>T10.02</t>
-  </si>
-  <si>
-    <t>T10.03</t>
-  </si>
-  <si>
-    <t>T17.01</t>
-  </si>
-  <si>
-    <t>T17.02</t>
-  </si>
-  <si>
-    <t>T17.03</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t>T18.02</t>
-  </si>
-  <si>
-    <t>T18.03</t>
-  </si>
-  <si>
-    <t>Store birth date of children</t>
-  </si>
-  <si>
-    <t>Store death date of parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -694,38 +873,195 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,12 +1070,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -747,11 +1269,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -763,43 +1527,94 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -819,25 +1634,28 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>41065</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>41078</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>41092</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>41106</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
@@ -868,11 +1686,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A990-44D6-8EC4-C51927FBDE4E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -912,7 +1725,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-469476192"/>
@@ -947,7 +1759,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-469478512"/>
@@ -966,7 +1777,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -978,9 +1788,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -991,7 +1801,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1000,47 +1840,213 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:cat>
+          <c:tx>
             <c:strRef>
-              <c:f>Burndown!$A$1:$A$4</c:f>
+              <c:f>Burndown!$A$2:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Start</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Start 9/24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$1:$B$4</c:f>
+              <c:f>Burndown!$C$2:$G$2</c:f>
               <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67F4-4C02-BD6F-07A26A0CE513}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1 10/9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.000000">
+                  <c:v>1.15967741935484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 2 10月23日</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.000000">
+                  <c:v>0.570212765957447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 3 11月7日</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6880531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1050,84 +2056,174 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="-467596544"/>
-        <c:axId val="-467594224"/>
+        <c:axId val="330174232"/>
+        <c:axId val="332688808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-467596544"/>
+        <c:axId val="330174232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-467594224"/>
+        <c:crossAx val="332688808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-467594224"/>
+        <c:axId val="332688808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-467596544"/>
+        <c:crossAx val="330174232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1135,7 +2231,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1146,8 +2241,564 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1161,20 +2812,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="824230" y="3557905"/>
+        <a:ext cx="4754880" cy="2620645"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1197,21 +2842,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1292860" y="1482725"/>
-          <a:ext cx="1200785" cy="617855"/>
+          <a:off x="1297305" y="1482725"/>
+          <a:ext cx="1203325" cy="617855"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1246,6 +2885,7 @@
             <a:rPr lang="en-US" baseline="0"/>
             <a:t> # team members * 4 sprints * </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1271,20 +2911,14 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274310" y="1457325"/>
+          <a:off x="5294630" y="1457325"/>
           <a:ext cx="1224280" cy="527685"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1335,21 +2969,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2750820" y="1290955"/>
-          <a:ext cx="939800" cy="787400"/>
+          <a:off x="2757805" y="1290955"/>
+          <a:ext cx="944245" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1403,21 +3031,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3690620" y="1609090"/>
-          <a:ext cx="509270" cy="418465"/>
+          <a:off x="3702050" y="1609090"/>
+          <a:ext cx="511175" cy="418465"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1448,12 +3070,14 @@
             <a:rPr lang="en-US"/>
             <a:t>Total </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>LOC</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1472,20 +3096,14 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4231640" y="1311910"/>
+          <a:off x="4249420" y="1311910"/>
           <a:ext cx="929640" cy="732155"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1540,20 +3158,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143932</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5426710" y="5027930"/>
+          <a:off x="5447030" y="5027930"/>
           <a:ext cx="1198880" cy="621030"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1595,34 +3207,28 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>824230</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1095375" y="1092200"/>
+        <a:ext cx="4562475" cy="2692400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1949,29 +3555,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.87890625" customWidth="1"/>
-    <col min="2" max="2" width="6.46875" customWidth="1"/>
-    <col min="3" max="3" width="8.46875" customWidth="1"/>
-    <col min="4" max="4" width="20.46875" customWidth="1"/>
-    <col min="5" max="5" width="29.41015625" customWidth="1"/>
-    <col min="6" max="6" width="49.41015625" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +3611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +3628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2039,64 +3645,560 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="4:6">
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1" display="yzong1@stevens.edu"/>
+    <hyperlink ref="D4" r:id="rId2" display="cliang6@stevens.edu"/>
+    <hyperlink ref="D5" r:id="rId3" display="fluo4@stevens.edu"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" ht="31.5" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25" spans="1:3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5" spans="1:3">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" ht="31.5" spans="1:3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" spans="1:3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" ht="31.5" spans="1:3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" ht="47.25" spans="1:3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" ht="63" spans="1:3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" ht="31.5" spans="1:3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" spans="1:3">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:3">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:3">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" ht="31.5" spans="1:3">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" ht="31.5" spans="1:3">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" ht="31.5" spans="1:3">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" ht="31.5" spans="1:3">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" ht="47.25" spans="1:3">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" ht="31.5" spans="1:3">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" ht="126" spans="1:3">
+      <c r="A27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:3">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" ht="31.5" spans="1:3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" ht="31.5" spans="1:3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" ht="31.5" spans="1:3">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" ht="47.25" spans="1:3">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" ht="31.5" spans="1:3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" ht="31.5" spans="1:3">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" ht="31.5" spans="1:3">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" ht="31.5" spans="1:3">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" ht="31.5" spans="1:3">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" ht="31.5" spans="1:3">
+      <c r="A41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" ht="31.5" spans="1:3">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" ht="31.5" spans="1:3">
+      <c r="A43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.3515625" customWidth="1"/>
-    <col min="2" max="2" width="7.64453125" customWidth="1"/>
-    <col min="3" max="3" width="29.87890625" customWidth="1"/>
-    <col min="4" max="4" width="6.64453125" customWidth="1"/>
-    <col min="5" max="5" width="7.64453125" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2104,16 +4206,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2121,33 +4223,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2155,78 +4257,84 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2234,13 +4342,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2248,55 +4359,67 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2304,13 +4427,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2318,493 +4444,595 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>70</v>
+      <c r="B19" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>72</v>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A19" sqref="A14:A19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
-  <cols>
-    <col min="1" max="1" width="10.87890625" style="6"/>
-    <col min="2" max="2" width="9.46875" customWidth="1"/>
-    <col min="3" max="3" width="15.87890625" customWidth="1"/>
-    <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="6.87890625" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="11">
-        <v>41065</v>
-      </c>
-      <c r="C15" s="12">
-        <v>24</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="11">
-        <v>41078</v>
-      </c>
-      <c r="C16" s="12">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <f>C15-C16</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="12">
-        <v>250</v>
-      </c>
-      <c r="F16" s="12">
-        <v>120</v>
-      </c>
-      <c r="G16" s="8">
-        <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="11">
-        <v>41092</v>
-      </c>
-      <c r="C17" s="12">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D19" si="0">C16-C17</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="12">
-        <v>480</v>
-      </c>
-      <c r="F17" s="13">
-        <v>135</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="11">
-        <v>41106</v>
-      </c>
-      <c r="C18" s="12">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E18" s="12">
-        <v>740</v>
-      </c>
-      <c r="F18" s="13">
-        <v>160</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="11">
-        <v>41120</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1100</v>
-      </c>
-      <c r="F19" s="13">
-        <v>145</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="1"/>
-        <v>148.9655172413793</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.87890625" style="6"/>
-    <col min="2" max="2" width="16.64453125" customWidth="1"/>
-    <col min="3" max="3" width="12.46875" customWidth="1"/>
-    <col min="4" max="4" width="15.64453125" customWidth="1"/>
-    <col min="5" max="5" width="9.64453125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.87890625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="12"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F14" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="G14" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="19">
+        <v>41065</v>
+      </c>
+      <c r="C15" s="20">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="19">
+        <v>41078</v>
+      </c>
+      <c r="C16" s="20">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f>C15-C16</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="20">
+        <v>250</v>
+      </c>
+      <c r="F16" s="20">
+        <v>120</v>
+      </c>
+      <c r="G16" s="14">
+        <f>(E16-E15)/F16*60</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="19">
+        <v>41092</v>
+      </c>
+      <c r="C17" s="20">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D19" si="0">C16-C17</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="20">
+        <v>480</v>
+      </c>
+      <c r="F17" s="21">
+        <v>135</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
+        <v>102.222222222222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="19">
+        <v>41106</v>
+      </c>
+      <c r="C18" s="20">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="20">
+        <v>740</v>
+      </c>
+      <c r="F18" s="21">
+        <v>160</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="E2">
+      <c r="B19" s="19">
+        <v>41120</v>
+      </c>
+      <c r="C19" s="20">
         <v>0</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="F3"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>92</v>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="21">
+        <v>145</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>148.965517241379</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.64453125" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="12"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12">
+        <v>41905</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="12">
+        <v>41920</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>719</v>
+      </c>
+      <c r="F3">
+        <v>620</v>
+      </c>
+      <c r="G3" s="17">
+        <f>E3/F3</f>
+        <v>1.15967741935484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="18">
+        <v>41934</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>268</v>
+      </c>
+      <c r="F4" s="14">
+        <v>470</v>
+      </c>
+      <c r="G4" s="17">
+        <f>E4/F4</f>
+        <v>0.570212765957447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="18">
+        <v>41949</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>311</v>
+      </c>
+      <c r="F5" s="14">
+        <v>452</v>
+      </c>
+      <c r="G5">
+        <v>0.6880531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I88"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.87890625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.87890625" style="6"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>26</v>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2812,58 +5040,67 @@
       <c r="F2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="G2">
+        <v>219</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>99</v>
       </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" ht="25.5" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>101</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
-        <v>103</v>
+    <row r="6" ht="25.5" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14" t="s">
-        <v>30</v>
+      <c r="A8" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -2871,58 +5108,67 @@
       <c r="F8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="24.75">
-      <c r="A10" s="14" t="s">
-        <v>105</v>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="14" t="s">
-        <v>107</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24.75">
-      <c r="A12" s="14" t="s">
-        <v>109</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>44</v>
+      <c r="A14" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>150</v>
@@ -2930,58 +5176,67 @@
       <c r="F14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="15"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
-        <v>199</v>
+      <c r="G14">
+        <v>191</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="15"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="15" t="s">
-        <v>46</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>150</v>
@@ -2989,55 +5244,64 @@
       <c r="F20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="15"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="15" t="s">
-        <v>202</v>
+      <c r="G20">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>112</v>
       </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="15" t="s">
-        <v>203</v>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.75">
-      <c r="A24" s="15" t="s">
-        <v>204</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>150</v>
@@ -3045,49 +5309,58 @@
       <c r="F26">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="16" t="s">
-        <v>205</v>
+      <c r="G26">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>150</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="16" t="s">
-        <v>206</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="16" t="s">
-        <v>207</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>150</v>
@@ -3095,32 +5368,41 @@
       <c r="F32">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="16"/>
+      <c r="G32">
+        <v>110</v>
+      </c>
+      <c r="H32">
+        <v>150</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="16" t="s">
-        <v>208</v>
+      <c r="A34" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
-        <v>209</v>
+      <c r="A35" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="16" t="s">
-        <v>210</v>
+      <c r="A36" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:2">
@@ -3131,647 +5413,1449 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" spans="2:2">
+      <c r="B80" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" spans="2:2">
+      <c r="B82" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" spans="2:2">
+      <c r="B84" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" ht="25.5" spans="2:2">
+      <c r="B85" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" spans="2:2">
+      <c r="B86" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="2:2">
+      <c r="B87" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" spans="2:2">
+      <c r="B88" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
+    <row r="1" ht="12.4" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="2" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" ht="12.4" customHeight="1" spans="2:9">
+      <c r="B25" s="2"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>150</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>150</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A35" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" ht="12.4" customHeight="1" spans="1:9">
+      <c r="A36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38">
+        <f>SUM(E2:E37)</f>
+        <v>520</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F2:F37)</f>
+        <v>420</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G2:G37)</f>
+        <v>268</v>
+      </c>
+      <c r="H38">
+        <f>SUM(H2:H37)</f>
+        <v>470</v>
+      </c>
+      <c r="I38">
+        <f>SUM(I2:I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:2">
+      <c r="B55" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:2">
+      <c r="B56" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:2">
+      <c r="B57" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:2">
+      <c r="B58" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:2">
+      <c r="B59" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:2">
+      <c r="B60" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:2">
+      <c r="B61" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:2">
+      <c r="B62" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:2">
+      <c r="B63" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="49.46875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="F14">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="47" ht="25.5" spans="2:2">
+      <c r="B47" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="48" ht="25.5" spans="2:2">
+      <c r="B48" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="49" ht="25.5" spans="2:2">
+      <c r="B49" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="51" ht="25.5" spans="2:2">
+      <c r="B51" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="52" ht="25.5" spans="2:2">
+      <c r="B52" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="53" ht="38.25" spans="2:2">
+      <c r="B53" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="54" ht="14.25" spans="2:2">
+      <c r="B54" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="55" ht="25.5" spans="2:2">
+      <c r="B55" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="105">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30">
-      <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
-      <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30">
-      <c r="A37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30">
-      <c r="A38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30">
-      <c r="A39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30">
-      <c r="A40" t="s">
-        <v>185</v>
-      </c>
-      <c r="B40" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30">
-      <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30">
-      <c r="A43" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>